--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_02.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC2594-9DD3-4621-AF62-C144E0423F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF0505-3600-4190-BEFA-3F69D07A47E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="240" windowWidth="13270" windowHeight="9990" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7450" yWindow="290" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="204">
   <si>
     <t>User</t>
   </si>
@@ -786,10 +786,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中樞神經系統：意識受損,心臟衰竭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>前者選 '其他症狀' 需填寫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -819,23 +815,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>少填資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>前者為TRUE需填寫
-測試此格未填寫
-需要把程式碼註解 避免執行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前者有' 嚴重器官損傷 '需填寫
-測試此格未填寫
-需要把程式碼註解 避免執行</t>
+    <t>前者有' 嚴重器官損傷 '需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重症少填資料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1289,8 +1277,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1613,7 @@
         <v>115</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="s">
@@ -1723,16 +1711,16 @@
       </c>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4" t="s">
@@ -1750,10 +1738,10 @@
         <v>55</v>
       </c>
       <c r="BT2" s="12" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="BU2" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="BV2" s="4"/>
     </row>
@@ -1942,13 +1930,13 @@
         <v>26</v>
       </c>
       <c r="BJ3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BL3" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="BM3" s="4" t="s">
         <v>110</v>
@@ -1986,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -2124,9 +2112,7 @@
       <c r="BT4" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="BU4" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="BU4" s="13"/>
       <c r="BV4" s="4"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.3">
